--- a/public/u_excel/3.ED.4.xlsx
+++ b/public/u_excel/3.ED.4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SIGEM\3.- Sociodemográfico\1.Educación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zizek\Desktop\Repositorio\dev-bomberos\public\u_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1184D99F-1DCC-447C-8A62-8EEA6E3F7AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698BC4A2-F850-42AE-B7A8-E0C1E7E838DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="14370" yWindow="3585" windowWidth="15465" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.ED.4" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Ciclo escolar</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>2015-2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>2016-2017</t>
@@ -542,7 +539,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -676,12 +673,105 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="double">
-        <color auto="1"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -729,81 +819,119 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="35" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -868,16 +996,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>734196</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>102491</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238896</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>35816</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -900,7 +1028,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="38100"/>
+          <a:off x="2847975" y="333375"/>
           <a:ext cx="4477521" cy="969266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1198,1093 +1326,1273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C10:R40"/>
+  <dimension ref="A10:P45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="6" width="11.42578125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="12.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="1" customWidth="1"/>
-    <col min="15" max="17" width="9.85546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="4" width="11.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="12.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="9.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="3:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="C10" s="22" t="s">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-    </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C11" s="23" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="37"/>
+      <c r="O12" s="39"/>
+    </row>
+    <row r="13" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>137</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1662</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1546</v>
+      </c>
+      <c r="E14" s="4">
+        <v>185</v>
+      </c>
+      <c r="F14" s="18">
+        <v>2210</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1211</v>
+      </c>
+      <c r="H14" s="19">
+        <v>859</v>
+      </c>
+      <c r="I14" s="6">
+        <v>4465</v>
+      </c>
+      <c r="J14" s="3">
+        <v>31983</v>
+      </c>
+      <c r="K14" s="18">
+        <v>32228</v>
+      </c>
+      <c r="L14" s="6">
+        <v>64211</v>
+      </c>
+      <c r="M14" s="19">
+        <v>42</v>
+      </c>
+      <c r="N14" s="19">
+        <v>29</v>
+      </c>
+      <c r="O14" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8">
+        <v>144</v>
+      </c>
+      <c r="C15" s="22">
+        <v>1830</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1601</v>
+      </c>
+      <c r="E15" s="8">
+        <v>218</v>
+      </c>
+      <c r="F15" s="22">
+        <v>2452</v>
+      </c>
+      <c r="G15" s="23">
+        <v>1248</v>
+      </c>
+      <c r="H15" s="23">
+        <v>733</v>
+      </c>
+      <c r="I15" s="9">
+        <v>4651</v>
+      </c>
+      <c r="J15" s="10">
+        <v>32592</v>
+      </c>
+      <c r="K15" s="22">
+        <v>32654</v>
+      </c>
+      <c r="L15" s="9">
+        <v>65246</v>
+      </c>
+      <c r="M15" s="23">
+        <v>41</v>
+      </c>
+      <c r="N15" s="23">
+        <v>27</v>
+      </c>
+      <c r="O15" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
+        <v>141</v>
+      </c>
+      <c r="C16" s="18">
+        <v>1847</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1635</v>
+      </c>
+      <c r="E16" s="4">
+        <v>213</v>
+      </c>
+      <c r="F16" s="18">
+        <v>2508</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1264</v>
+      </c>
+      <c r="H16" s="19">
+        <v>778</v>
+      </c>
+      <c r="I16" s="6">
+        <v>4763</v>
+      </c>
+      <c r="J16" s="3">
+        <v>33121</v>
+      </c>
+      <c r="K16" s="18">
+        <v>33225</v>
+      </c>
+      <c r="L16" s="6">
+        <v>66346</v>
+      </c>
+      <c r="M16" s="19">
+        <v>41</v>
+      </c>
+      <c r="N16" s="19">
+        <v>26</v>
+      </c>
+      <c r="O16" s="20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8">
+        <v>145</v>
+      </c>
+      <c r="C17" s="22">
+        <v>1901</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1705</v>
+      </c>
+      <c r="E17" s="8">
+        <v>198</v>
+      </c>
+      <c r="F17" s="22">
+        <v>2646</v>
+      </c>
+      <c r="G17" s="23">
+        <v>1354</v>
+      </c>
+      <c r="H17" s="23">
+        <v>769</v>
+      </c>
+      <c r="I17" s="9">
+        <v>4967</v>
+      </c>
+      <c r="J17" s="10">
+        <v>34721</v>
+      </c>
+      <c r="K17" s="22">
+        <v>34438</v>
+      </c>
+      <c r="L17" s="9">
+        <v>69159</v>
+      </c>
+      <c r="M17" s="23">
+        <v>41</v>
+      </c>
+      <c r="N17" s="23">
+        <v>26</v>
+      </c>
+      <c r="O17" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4">
+        <v>150</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1942</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1763</v>
+      </c>
+      <c r="E18" s="4">
+        <v>208</v>
+      </c>
+      <c r="F18" s="18">
+        <v>2751</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1352</v>
+      </c>
+      <c r="H18" s="19">
+        <v>789</v>
+      </c>
+      <c r="I18" s="6">
+        <v>5100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>35701</v>
+      </c>
+      <c r="K18" s="18">
+        <v>35386</v>
+      </c>
+      <c r="L18" s="6">
+        <v>71087</v>
+      </c>
+      <c r="M18" s="19">
         <v>40</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-    </row>
-    <row r="13" spans="3:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="3"/>
-      <c r="D13" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-    </row>
-    <row r="14" spans="3:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="4" t="s">
+      <c r="N18" s="19">
+        <v>26</v>
+      </c>
+      <c r="O18" s="20">
         <v>13</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8">
-        <v>137</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1662</v>
-      </c>
-      <c r="F15" s="11">
-        <v>1546</v>
-      </c>
-      <c r="G15" s="8">
-        <v>185</v>
-      </c>
-      <c r="H15" s="10">
-        <v>2210</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1211</v>
-      </c>
-      <c r="J15" s="2">
-        <v>859</v>
-      </c>
-      <c r="K15" s="11">
-        <v>4465</v>
-      </c>
-      <c r="L15" s="7">
-        <v>31983</v>
-      </c>
-      <c r="M15" s="10">
-        <v>32228</v>
-      </c>
-      <c r="N15" s="11">
-        <v>64211</v>
-      </c>
-      <c r="O15" s="2">
-        <v>42</v>
-      </c>
-      <c r="P15" s="2">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="8">
+        <v>155</v>
+      </c>
+      <c r="C19" s="22">
+        <v>2030</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1831</v>
+      </c>
+      <c r="E19" s="8">
+        <v>207</v>
+      </c>
+      <c r="F19" s="22">
+        <v>2817</v>
+      </c>
+      <c r="G19" s="23">
+        <v>1341</v>
+      </c>
+      <c r="H19" s="23">
+        <v>809</v>
+      </c>
+      <c r="I19" s="9">
+        <v>5174</v>
+      </c>
+      <c r="J19" s="10">
+        <v>36770</v>
+      </c>
+      <c r="K19" s="22">
+        <v>36507</v>
+      </c>
+      <c r="L19" s="9">
+        <v>73277</v>
+      </c>
+      <c r="M19" s="23">
+        <v>40</v>
+      </c>
+      <c r="N19" s="23">
+        <v>26</v>
+      </c>
+      <c r="O19" s="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3">
+        <v>157</v>
+      </c>
+      <c r="C20" s="18">
+        <v>2110</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1903</v>
+      </c>
+      <c r="E20" s="3">
+        <v>207</v>
+      </c>
+      <c r="F20" s="18">
+        <v>2894</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1376</v>
+      </c>
+      <c r="H20" s="18">
+        <v>840</v>
+      </c>
+      <c r="I20" s="6">
+        <v>5317</v>
+      </c>
+      <c r="J20" s="3">
+        <v>37952</v>
+      </c>
+      <c r="K20" s="18">
+        <v>37399</v>
+      </c>
+      <c r="L20" s="6">
+        <v>75351</v>
+      </c>
+      <c r="M20" s="18">
+        <v>40</v>
+      </c>
+      <c r="N20" s="18">
+        <v>26</v>
+      </c>
+      <c r="O20" s="25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="10">
+        <v>163</v>
+      </c>
+      <c r="C21" s="22">
+        <v>2132</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1955</v>
+      </c>
+      <c r="E21" s="10">
+        <v>224</v>
+      </c>
+      <c r="F21" s="22">
+        <v>2930</v>
+      </c>
+      <c r="G21" s="22">
+        <v>1449</v>
+      </c>
+      <c r="H21" s="22">
+        <v>837</v>
+      </c>
+      <c r="I21" s="9">
+        <v>5440</v>
+      </c>
+      <c r="J21" s="10">
+        <v>39050</v>
+      </c>
+      <c r="K21" s="22">
+        <v>38425</v>
+      </c>
+      <c r="L21" s="9">
+        <v>77475</v>
+      </c>
+      <c r="M21" s="22">
+        <v>40</v>
+      </c>
+      <c r="N21" s="22">
+        <v>26</v>
+      </c>
+      <c r="O21" s="26">
+        <v>13</v>
+      </c>
+      <c r="P21" s="11"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="18">
+        <v>165</v>
+      </c>
+      <c r="C22" s="18">
+        <v>2223</v>
+      </c>
+      <c r="D22" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="18">
+        <v>172</v>
+      </c>
+      <c r="F22" s="18">
+        <v>2936</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1555</v>
+      </c>
+      <c r="H22" s="18">
+        <v>852</v>
+      </c>
+      <c r="I22" s="18">
+        <v>5515</v>
+      </c>
+      <c r="J22" s="18">
+        <v>39235</v>
+      </c>
+      <c r="K22" s="18">
+        <v>38599</v>
+      </c>
+      <c r="L22" s="18">
+        <v>77834</v>
+      </c>
+      <c r="M22" s="18">
+        <v>38.917000000000002</v>
+      </c>
+      <c r="N22" s="18">
+        <v>26.510217983651227</v>
+      </c>
+      <c r="O22" s="25">
+        <v>13.472727272727273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="22">
+        <v>170</v>
+      </c>
+      <c r="C23" s="22">
+        <v>2274</v>
+      </c>
+      <c r="D23" s="22">
+        <v>2042</v>
+      </c>
+      <c r="E23" s="22">
+        <v>191</v>
+      </c>
+      <c r="F23" s="22">
+        <v>2989</v>
+      </c>
+      <c r="G23" s="22">
+        <v>1482</v>
+      </c>
+      <c r="H23" s="22">
+        <v>886</v>
+      </c>
+      <c r="I23" s="22">
+        <v>5548</v>
+      </c>
+      <c r="J23" s="22">
+        <v>38734</v>
+      </c>
+      <c r="K23" s="22">
+        <v>38517</v>
+      </c>
+      <c r="L23" s="22">
+        <f>SUM(J23:K23)</f>
+        <v>77251</v>
+      </c>
+      <c r="M23" s="22">
+        <f>L23/D23</f>
+        <v>37.831047992164542</v>
+      </c>
+      <c r="N23" s="22">
+        <f>L23/F23</f>
+        <v>25.845098695215793</v>
+      </c>
+      <c r="O23" s="26">
+        <f>C23/B23</f>
+        <v>13.376470588235295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Q15" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C16" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="14">
-        <v>144</v>
-      </c>
-      <c r="E16" s="15">
-        <v>1830</v>
-      </c>
-      <c r="F16" s="16">
-        <v>1601</v>
-      </c>
-      <c r="G16" s="14">
-        <v>218</v>
-      </c>
-      <c r="H16" s="15">
-        <v>2452</v>
-      </c>
-      <c r="I16" s="13">
-        <v>1248</v>
-      </c>
-      <c r="J16" s="13">
-        <v>733</v>
-      </c>
-      <c r="K16" s="16">
-        <v>4651</v>
-      </c>
-      <c r="L16" s="17">
-        <v>32592</v>
-      </c>
-      <c r="M16" s="15">
-        <v>32654</v>
-      </c>
-      <c r="N16" s="16">
-        <v>65246</v>
-      </c>
-      <c r="O16" s="13">
-        <v>41</v>
-      </c>
-      <c r="P16" s="13">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="8">
-        <v>141</v>
-      </c>
-      <c r="E17" s="10">
-        <v>1847</v>
-      </c>
-      <c r="F17" s="11">
-        <v>1635</v>
-      </c>
-      <c r="G17" s="8">
-        <v>213</v>
-      </c>
-      <c r="H17" s="10">
-        <v>2508</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1264</v>
-      </c>
-      <c r="J17" s="2">
-        <v>778</v>
-      </c>
-      <c r="K17" s="11">
-        <v>4763</v>
-      </c>
-      <c r="L17" s="7">
-        <v>33121</v>
-      </c>
-      <c r="M17" s="10">
-        <v>33225</v>
-      </c>
-      <c r="N17" s="11">
-        <v>66346</v>
-      </c>
-      <c r="O17" s="2">
-        <v>41</v>
-      </c>
-      <c r="P17" s="2">
-        <v>26</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C18" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="14">
-        <v>145</v>
-      </c>
-      <c r="E18" s="15">
-        <v>1901</v>
-      </c>
-      <c r="F18" s="16">
-        <v>1705</v>
-      </c>
-      <c r="G18" s="14">
-        <v>198</v>
-      </c>
-      <c r="H18" s="15">
-        <v>2646</v>
-      </c>
-      <c r="I18" s="13">
-        <v>1354</v>
-      </c>
-      <c r="J18" s="13">
-        <v>769</v>
-      </c>
-      <c r="K18" s="16">
-        <v>4967</v>
-      </c>
-      <c r="L18" s="17">
-        <v>34721</v>
-      </c>
-      <c r="M18" s="15">
-        <v>34438</v>
-      </c>
-      <c r="N18" s="16">
-        <v>69159</v>
-      </c>
-      <c r="O18" s="13">
-        <v>41</v>
-      </c>
-      <c r="P18" s="13">
-        <v>26</v>
-      </c>
-      <c r="Q18" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="8">
-        <v>150</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1942</v>
-      </c>
-      <c r="F19" s="11">
-        <v>1763</v>
-      </c>
-      <c r="G19" s="8">
-        <v>208</v>
-      </c>
-      <c r="H19" s="10">
-        <v>2751</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1352</v>
-      </c>
-      <c r="J19" s="2">
-        <v>789</v>
-      </c>
-      <c r="K19" s="11">
-        <v>5100</v>
-      </c>
-      <c r="L19" s="7">
-        <v>35701</v>
-      </c>
-      <c r="M19" s="10">
-        <v>35386</v>
-      </c>
-      <c r="N19" s="11">
-        <v>71087</v>
-      </c>
-      <c r="O19" s="2">
-        <v>40</v>
-      </c>
-      <c r="P19" s="2">
-        <v>26</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="14">
+      <c r="B24" s="28">
+        <v>170</v>
+      </c>
+      <c r="C24" s="28">
+        <v>2274</v>
+      </c>
+      <c r="D24" s="28">
+        <v>2065</v>
+      </c>
+      <c r="E24" s="28">
+        <v>181</v>
+      </c>
+      <c r="F24" s="28">
+        <v>2973</v>
+      </c>
+      <c r="G24" s="28">
+        <v>1469</v>
+      </c>
+      <c r="H24" s="28">
+        <v>924</v>
+      </c>
+      <c r="I24" s="28">
+        <v>5547</v>
+      </c>
+      <c r="J24" s="28">
+        <v>38786</v>
+      </c>
+      <c r="K24" s="28">
+        <v>38291</v>
+      </c>
+      <c r="L24" s="28">
+        <v>77077</v>
+      </c>
+      <c r="M24" s="28">
+        <v>37.325423728813561</v>
+      </c>
+      <c r="N24" s="28">
+        <v>25.925664312142615</v>
+      </c>
+      <c r="O24" s="29">
+        <v>13.376470588235295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="22">
+        <v>171</v>
+      </c>
+      <c r="C25" s="22">
+        <v>2370</v>
+      </c>
+      <c r="D25" s="22">
+        <v>2095</v>
+      </c>
+      <c r="E25" s="22">
+        <v>170</v>
+      </c>
+      <c r="F25" s="22">
+        <v>2920</v>
+      </c>
+      <c r="G25" s="22">
+        <v>1496</v>
+      </c>
+      <c r="H25" s="22">
+        <v>956</v>
+      </c>
+      <c r="I25" s="22">
+        <v>5542</v>
+      </c>
+      <c r="J25" s="22">
+        <v>39255</v>
+      </c>
+      <c r="K25" s="22">
+        <v>38694</v>
+      </c>
+      <c r="L25" s="22">
+        <v>77949</v>
+      </c>
+      <c r="M25" s="22">
+        <f t="shared" ref="M25:M31" si="0">L25/D25</f>
+        <v>37.207159904534606</v>
+      </c>
+      <c r="N25" s="22">
+        <f t="shared" ref="N25:N31" si="1">L25/F25</f>
+        <v>26.69486301369863</v>
+      </c>
+      <c r="O25" s="26">
+        <f t="shared" ref="O25:O31" si="2">C25/B25</f>
+        <v>13.859649122807017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="28">
+        <v>174</v>
+      </c>
+      <c r="C26" s="28">
+        <v>2427</v>
+      </c>
+      <c r="D26" s="28">
+        <v>2129</v>
+      </c>
+      <c r="E26" s="28">
         <v>155</v>
       </c>
-      <c r="E20" s="15">
-        <v>2030</v>
-      </c>
-      <c r="F20" s="16">
-        <v>1831</v>
-      </c>
-      <c r="G20" s="14">
-        <v>207</v>
-      </c>
-      <c r="H20" s="15">
-        <v>2817</v>
-      </c>
-      <c r="I20" s="13">
-        <v>1341</v>
-      </c>
-      <c r="J20" s="13">
-        <v>809</v>
-      </c>
-      <c r="K20" s="16">
-        <v>5174</v>
-      </c>
-      <c r="L20" s="17">
-        <v>36770</v>
-      </c>
-      <c r="M20" s="15">
-        <v>36507</v>
-      </c>
-      <c r="N20" s="16">
-        <v>73277</v>
-      </c>
-      <c r="O20" s="13">
-        <v>40</v>
-      </c>
-      <c r="P20" s="13">
-        <v>26</v>
-      </c>
-      <c r="Q20" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="7">
-        <v>157</v>
-      </c>
-      <c r="E21" s="10">
-        <v>2110</v>
-      </c>
-      <c r="F21" s="11">
-        <v>1903</v>
-      </c>
-      <c r="G21" s="7">
-        <v>207</v>
-      </c>
-      <c r="H21" s="10">
-        <v>2894</v>
-      </c>
-      <c r="I21" s="10">
-        <v>1376</v>
-      </c>
-      <c r="J21" s="10">
-        <v>840</v>
-      </c>
-      <c r="K21" s="11">
-        <v>5317</v>
-      </c>
-      <c r="L21" s="7">
-        <v>37952</v>
-      </c>
-      <c r="M21" s="10">
-        <v>37399</v>
-      </c>
-      <c r="N21" s="11">
-        <v>75351</v>
-      </c>
-      <c r="O21" s="10">
-        <v>40</v>
-      </c>
-      <c r="P21" s="10">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C22" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="17">
-        <v>163</v>
-      </c>
-      <c r="E22" s="15">
-        <v>2132</v>
-      </c>
-      <c r="F22" s="16">
-        <v>1955</v>
-      </c>
-      <c r="G22" s="17">
-        <v>224</v>
-      </c>
-      <c r="H22" s="15">
-        <v>2930</v>
-      </c>
-      <c r="I22" s="15">
-        <v>1449</v>
-      </c>
-      <c r="J22" s="15">
-        <v>837</v>
-      </c>
-      <c r="K22" s="16">
-        <v>5440</v>
-      </c>
-      <c r="L22" s="17">
-        <v>39050</v>
-      </c>
-      <c r="M22" s="15">
-        <v>38425</v>
-      </c>
-      <c r="N22" s="16">
-        <v>77475</v>
-      </c>
-      <c r="O22" s="15">
-        <v>40</v>
-      </c>
-      <c r="P22" s="15">
-        <v>26</v>
-      </c>
-      <c r="Q22" s="15">
-        <v>13</v>
-      </c>
-      <c r="R22" s="18"/>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="10">
-        <v>165</v>
-      </c>
-      <c r="E23" s="10">
-        <v>2223</v>
-      </c>
-      <c r="F23" s="10">
-        <v>2000</v>
-      </c>
-      <c r="G23" s="10">
-        <v>172</v>
-      </c>
-      <c r="H23" s="10">
-        <v>2936</v>
-      </c>
-      <c r="I23" s="10">
-        <v>1555</v>
-      </c>
-      <c r="J23" s="10">
-        <v>852</v>
-      </c>
-      <c r="K23" s="10">
-        <v>5515</v>
-      </c>
-      <c r="L23" s="10">
-        <v>39235</v>
-      </c>
-      <c r="M23" s="10">
-        <v>38599</v>
-      </c>
-      <c r="N23" s="10">
-        <v>77834</v>
-      </c>
-      <c r="O23" s="10">
-        <v>38.917000000000002</v>
-      </c>
-      <c r="P23" s="10">
-        <v>26.510217983651227</v>
-      </c>
-      <c r="Q23" s="10">
-        <v>13.472727272727273</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C24" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="15">
-        <v>170</v>
-      </c>
-      <c r="E24" s="15">
-        <v>2274</v>
-      </c>
-      <c r="F24" s="15">
-        <v>2042</v>
-      </c>
-      <c r="G24" s="15">
-        <v>191</v>
-      </c>
-      <c r="H24" s="15">
-        <v>2989</v>
-      </c>
-      <c r="I24" s="15">
-        <v>1482</v>
-      </c>
-      <c r="J24" s="15">
-        <v>886</v>
-      </c>
-      <c r="K24" s="15">
-        <v>5548</v>
-      </c>
-      <c r="L24" s="15">
-        <v>38734</v>
-      </c>
-      <c r="M24" s="15">
-        <v>38517</v>
-      </c>
-      <c r="N24" s="15">
-        <f>SUM(L24:M24)</f>
-        <v>77251</v>
-      </c>
-      <c r="O24" s="15">
-        <f>N24/F24</f>
-        <v>37.831047992164542</v>
-      </c>
-      <c r="P24" s="15">
-        <f>N24/H24</f>
-        <v>25.845098695215793</v>
-      </c>
-      <c r="Q24" s="15">
-        <f>E24/D24</f>
-        <v>13.376470588235295</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C25" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="20">
-        <v>170</v>
-      </c>
-      <c r="E25" s="20">
-        <v>2274</v>
-      </c>
-      <c r="F25" s="20">
-        <v>2065</v>
-      </c>
-      <c r="G25" s="20">
-        <v>181</v>
-      </c>
-      <c r="H25" s="20">
-        <v>2973</v>
-      </c>
-      <c r="I25" s="20">
-        <v>1469</v>
-      </c>
-      <c r="J25" s="20">
-        <v>924</v>
-      </c>
-      <c r="K25" s="20">
-        <v>5547</v>
-      </c>
-      <c r="L25" s="20">
-        <v>38786</v>
-      </c>
-      <c r="M25" s="20">
-        <v>38291</v>
-      </c>
-      <c r="N25" s="20">
-        <v>77077</v>
-      </c>
-      <c r="O25" s="20">
-        <v>37.325423728813561</v>
-      </c>
-      <c r="P25" s="20">
-        <v>25.925664312142615</v>
-      </c>
-      <c r="Q25" s="20">
-        <v>13.376470588235295</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C26" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="15">
-        <v>171</v>
-      </c>
-      <c r="E26" s="15">
-        <v>2370</v>
-      </c>
-      <c r="F26" s="15">
-        <v>2095</v>
-      </c>
-      <c r="G26" s="15">
-        <v>170</v>
-      </c>
-      <c r="H26" s="15">
-        <v>2920</v>
-      </c>
-      <c r="I26" s="15">
-        <v>1496</v>
-      </c>
-      <c r="J26" s="15">
-        <v>956</v>
-      </c>
-      <c r="K26" s="15">
-        <v>5542</v>
-      </c>
-      <c r="L26" s="15">
-        <v>39255</v>
-      </c>
-      <c r="M26" s="15">
-        <v>38694</v>
-      </c>
-      <c r="N26" s="15">
-        <v>77949</v>
-      </c>
-      <c r="O26" s="15">
-        <f t="shared" ref="O26:O32" si="0">N26/F26</f>
-        <v>37.207159904534606</v>
-      </c>
-      <c r="P26" s="15">
-        <f t="shared" ref="P26:P32" si="1">N26/H26</f>
-        <v>26.69486301369863</v>
-      </c>
-      <c r="Q26" s="15">
-        <f t="shared" ref="Q26:Q32" si="2">E26/D26</f>
-        <v>13.859649122807017</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C27" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="20">
-        <v>174</v>
-      </c>
-      <c r="E27" s="20">
-        <v>2427</v>
-      </c>
-      <c r="F27" s="20">
-        <v>2129</v>
-      </c>
-      <c r="G27" s="20">
-        <v>155</v>
-      </c>
-      <c r="H27" s="20">
+      <c r="F26" s="28">
         <v>2915</v>
       </c>
-      <c r="I27" s="20">
+      <c r="G26" s="28">
         <v>1513</v>
       </c>
-      <c r="J27" s="20">
+      <c r="H26" s="28">
         <v>1069</v>
       </c>
-      <c r="K27" s="20">
+      <c r="I26" s="28">
         <v>5652</v>
       </c>
-      <c r="L27" s="20">
+      <c r="J26" s="28">
         <v>39787</v>
       </c>
-      <c r="M27" s="20">
+      <c r="K26" s="28">
         <v>39621</v>
       </c>
-      <c r="N27" s="20">
+      <c r="L26" s="28">
         <v>79408</v>
       </c>
-      <c r="O27" s="20">
+      <c r="M26" s="28">
         <f t="shared" si="0"/>
         <v>37.298262094880222</v>
       </c>
-      <c r="P27" s="20">
+      <c r="N26" s="28">
         <f t="shared" si="1"/>
         <v>27.241166380789021</v>
       </c>
-      <c r="Q27" s="20">
+      <c r="O26" s="29">
         <f t="shared" si="2"/>
         <v>13.948275862068966</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C28" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="15">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="22">
         <v>178</v>
       </c>
-      <c r="E28" s="15">
+      <c r="C27" s="22">
         <v>2657</v>
       </c>
-      <c r="F28" s="15">
+      <c r="D27" s="22">
         <v>2139</v>
       </c>
-      <c r="G28" s="15">
+      <c r="E27" s="22">
         <v>157</v>
       </c>
-      <c r="H28" s="15">
+      <c r="F27" s="22">
         <v>2853</v>
       </c>
-      <c r="I28" s="15">
+      <c r="G27" s="22">
         <v>1496</v>
       </c>
-      <c r="J28" s="15">
-        <f>K28-G28-H28-I28</f>
+      <c r="H27" s="22">
+        <f>I27-E27-F27-G27</f>
         <v>1063</v>
       </c>
-      <c r="K28" s="15">
+      <c r="I27" s="22">
         <v>5569</v>
       </c>
-      <c r="L28" s="15">
+      <c r="J27" s="22">
         <v>39809</v>
       </c>
-      <c r="M28" s="15">
+      <c r="K27" s="22">
         <v>40036</v>
       </c>
-      <c r="N28" s="15">
+      <c r="L27" s="22">
         <v>79835</v>
       </c>
-      <c r="O28" s="15">
+      <c r="M27" s="22">
         <f t="shared" si="0"/>
         <v>37.323515661524077</v>
       </c>
-      <c r="P28" s="15">
+      <c r="N27" s="22">
         <f t="shared" si="1"/>
         <v>27.982825096389764</v>
       </c>
-      <c r="Q28" s="15">
+      <c r="O27" s="26">
         <f t="shared" si="2"/>
         <v>14.926966292134832</v>
       </c>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="20">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="28">
         <v>177</v>
       </c>
-      <c r="E29" s="20">
+      <c r="C28" s="28">
         <v>2496</v>
       </c>
-      <c r="F29" s="20">
+      <c r="D28" s="28">
         <v>2150</v>
       </c>
-      <c r="G29" s="20">
+      <c r="E28" s="28">
         <v>157</v>
       </c>
-      <c r="H29" s="20">
+      <c r="F28" s="28">
         <v>2947</v>
       </c>
-      <c r="I29" s="20">
+      <c r="G28" s="28">
         <v>1553</v>
       </c>
-      <c r="J29" s="20">
-        <f>K29-G29-H29-I29</f>
+      <c r="H28" s="28">
+        <f>I28-E28-F28-G28</f>
         <v>1077</v>
       </c>
-      <c r="K29" s="20">
+      <c r="I28" s="28">
         <v>5734</v>
       </c>
-      <c r="L29" s="20">
+      <c r="J28" s="28">
         <v>39688</v>
       </c>
-      <c r="M29" s="20">
+      <c r="K28" s="28">
         <v>39645</v>
       </c>
-      <c r="N29" s="20">
+      <c r="L28" s="28">
         <v>79333</v>
       </c>
-      <c r="O29" s="20">
+      <c r="M28" s="28">
         <f t="shared" si="0"/>
         <v>36.899069767441858</v>
       </c>
-      <c r="P29" s="20">
+      <c r="N28" s="28">
         <f t="shared" si="1"/>
         <v>26.919918561248728</v>
       </c>
-      <c r="Q29" s="20">
+      <c r="O28" s="29">
         <f t="shared" si="2"/>
         <v>14.101694915254237</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C30" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="15">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="22">
         <v>176</v>
       </c>
-      <c r="E30" s="15">
+      <c r="C29" s="22">
         <v>2523</v>
       </c>
-      <c r="F30" s="15">
+      <c r="D29" s="22">
         <v>2153</v>
       </c>
-      <c r="G30" s="15">
+      <c r="E29" s="22">
         <v>156</v>
       </c>
-      <c r="H30" s="15">
+      <c r="F29" s="22">
         <v>3009</v>
       </c>
-      <c r="I30" s="15">
+      <c r="G29" s="22">
         <v>1542</v>
       </c>
-      <c r="J30" s="15">
-        <f>K30-G30-H30-I30</f>
+      <c r="H29" s="22">
+        <f>I29-E29-F29-G29</f>
         <v>1100</v>
       </c>
-      <c r="K30" s="15">
+      <c r="I29" s="22">
         <v>5807</v>
       </c>
-      <c r="L30" s="15">
+      <c r="J29" s="22">
         <v>37809</v>
       </c>
-      <c r="M30" s="15">
+      <c r="K29" s="22">
         <v>37688</v>
       </c>
-      <c r="N30" s="15">
-        <f>L30+M30</f>
+      <c r="L29" s="22">
+        <f>J29+K29</f>
         <v>75497</v>
       </c>
-      <c r="O30" s="15">
+      <c r="M29" s="22">
         <f t="shared" si="0"/>
         <v>35.065954482117974</v>
       </c>
-      <c r="P30" s="15">
+      <c r="N29" s="22">
         <f t="shared" si="1"/>
         <v>25.09039548022599</v>
       </c>
-      <c r="Q30" s="15">
+      <c r="O29" s="26">
         <f t="shared" si="2"/>
         <v>14.335227272727273</v>
       </c>
     </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C31" s="19" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="28">
+        <v>177</v>
+      </c>
+      <c r="C30" s="28">
+        <v>2603</v>
+      </c>
+      <c r="D30" s="28">
+        <v>2169</v>
+      </c>
+      <c r="E30" s="28">
+        <v>159</v>
+      </c>
+      <c r="F30" s="28">
+        <v>3113</v>
+      </c>
+      <c r="G30" s="28">
+        <v>1545</v>
+      </c>
+      <c r="H30" s="28">
+        <f>I30-E30-F30-G30</f>
+        <v>1128</v>
+      </c>
+      <c r="I30" s="28">
+        <v>5945</v>
+      </c>
+      <c r="J30" s="28">
+        <v>37497</v>
+      </c>
+      <c r="K30" s="28">
+        <v>37130</v>
+      </c>
+      <c r="L30" s="28">
+        <f>J30+K30</f>
+        <v>74627</v>
+      </c>
+      <c r="M30" s="28">
+        <f t="shared" ref="M30" si="3">L30/D30</f>
+        <v>34.406177962194562</v>
+      </c>
+      <c r="N30" s="28">
+        <f t="shared" ref="N30" si="4">L30/F30</f>
+        <v>23.972695149373596</v>
+      </c>
+      <c r="O30" s="29">
+        <f t="shared" ref="O30" si="5">C30/B30</f>
+        <v>14.706214689265536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="20">
-        <v>177</v>
-      </c>
-      <c r="E31" s="20">
-        <v>2603</v>
-      </c>
-      <c r="F31" s="20">
-        <v>2169</v>
-      </c>
-      <c r="G31" s="20">
-        <v>159</v>
-      </c>
-      <c r="H31" s="20">
-        <v>3113</v>
-      </c>
-      <c r="I31" s="20">
-        <v>1545</v>
-      </c>
-      <c r="J31" s="20">
-        <f>K31-G31-H31-I31</f>
-        <v>1128</v>
-      </c>
-      <c r="K31" s="20">
-        <v>5945</v>
-      </c>
-      <c r="L31" s="20">
-        <v>37497</v>
-      </c>
-      <c r="M31" s="20">
-        <v>37130</v>
-      </c>
-      <c r="N31" s="20">
-        <f>L31+M31</f>
-        <v>74627</v>
-      </c>
-      <c r="O31" s="20">
-        <f t="shared" ref="O31" si="3">N31/F31</f>
-        <v>34.406177962194562</v>
-      </c>
-      <c r="P31" s="20">
-        <f t="shared" ref="P31" si="4">N31/H31</f>
-        <v>23.972695149373596</v>
-      </c>
-      <c r="Q31" s="20">
-        <f t="shared" ref="Q31" si="5">E31/D31</f>
-        <v>14.706214689265536</v>
-      </c>
-    </row>
-    <row r="32" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="15">
+      <c r="B31" s="31">
         <v>180</v>
       </c>
-      <c r="E32" s="15">
+      <c r="C31" s="31">
         <v>2631</v>
       </c>
-      <c r="F32" s="15">
+      <c r="D31" s="31">
         <v>2199</v>
       </c>
-      <c r="G32" s="15">
+      <c r="E31" s="31">
         <v>158</v>
       </c>
-      <c r="H32" s="15">
+      <c r="F31" s="31">
         <v>3107</v>
       </c>
-      <c r="I32" s="15">
+      <c r="G31" s="31">
         <v>1547</v>
       </c>
-      <c r="J32" s="15">
-        <f>K32-G32-H32-I32</f>
+      <c r="H31" s="31">
+        <f>I31-E31-F31-G31</f>
         <v>1143</v>
       </c>
-      <c r="K32" s="15">
+      <c r="I31" s="31">
         <v>5955</v>
       </c>
-      <c r="L32" s="15">
+      <c r="J31" s="31">
         <v>37015</v>
       </c>
-      <c r="M32" s="15">
+      <c r="K31" s="31">
         <v>36753</v>
       </c>
-      <c r="N32" s="15">
-        <f>L32+M32</f>
+      <c r="L31" s="31">
+        <f>J31+K31</f>
         <v>73768</v>
       </c>
-      <c r="O32" s="15">
+      <c r="M31" s="31">
         <f t="shared" si="0"/>
         <v>33.546157344247383</v>
       </c>
-      <c r="P32" s="15">
+      <c r="N31" s="31">
         <f t="shared" si="1"/>
         <v>23.742516897328613</v>
       </c>
-      <c r="Q32" s="15">
+      <c r="O31" s="32">
         <f t="shared" si="2"/>
         <v>14.616666666666667</v>
       </c>
     </row>
-    <row r="33" spans="3:17" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-    </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C34" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-    </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C35" s="24" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-    </row>
-    <row r="40" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="Q40" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+    </row>
+    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+    </row>
+    <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+    </row>
+    <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+    </row>
+    <row r="40" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+    </row>
+    <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+    </row>
+    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+    </row>
+    <row r="43" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+    </row>
+    <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+    </row>
+    <row r="45" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C10:Q10"/>
-    <mergeCell ref="C11:Q11"/>
-    <mergeCell ref="C35:Q35"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="C34:Q34"/>
+    <mergeCell ref="A10:O10"/>
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="A32:O32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="63" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="N24" formulaRange="1"/>
+    <ignoredError sqref="L23" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
